--- a/NationaleNederlanden/NN.xlsx
+++ b/NationaleNederlanden/NN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsen/KeuzeWelkIndexFonds/OnderzoekPerFonds/NationaleNederlanden/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NationaleNederlanden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="991" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571B1279-E2CE-4B43-887F-A2C90601731D}"/>
+  <xr:revisionPtr revIDLastSave="993" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DBB4F68-C390-454D-9A6E-C7906EB48559}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="4620" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -801,7 +801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,7 +941,7 @@
         <f>E9/E6</f>
         <v>2.9185379431712744E-4</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>AVERAGE(C10:E10)</f>
         <v>4.6920722462495099E-4</v>
       </c>
@@ -1057,7 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A85D1B-17E6-4D1A-A9FF-2C978DD6CE4D}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1173,7 +1175,7 @@
         <f>D9/D6</f>
         <v>1.364490350732894E-3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>AVERAGE(C10:D10)</f>
         <v>2.3763228046372589E-3</v>
       </c>

--- a/NationaleNederlanden/NN.xlsx
+++ b/NationaleNederlanden/NN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NationaleNederlanden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="993" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DBB4F68-C390-454D-9A6E-C7906EB48559}"/>
+  <xr:revisionPtr revIDLastSave="995" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D5579F-01B9-4881-BD47-FC03D3B73C81}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="4620" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>TER</t>
   </si>
@@ -128,24 +128,6 @@
   </si>
   <si>
     <t>MSCI Emerging</t>
-  </si>
-  <si>
-    <t>NN DM</t>
-  </si>
-  <si>
-    <t>NN EM</t>
-  </si>
-  <si>
-    <t>Laag</t>
-  </si>
-  <si>
-    <t>Hoog</t>
-  </si>
-  <si>
-    <t>Totaal</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>Market cap</t>
@@ -240,20 +222,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -264,7 +237,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -285,9 +258,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -575,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D6687D-2650-40D8-BB0F-4784280BA24F}">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,36 +570,36 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -666,7 +636,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -679,7 +649,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -718,75 +688,22 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="e">
-        <f>D12*DM!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="4" t="e">
-        <f>D12*DM!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="e">
-        <f>D13*EM!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="2" t="e">
-        <f>D13*EM!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="18" t="e">
-        <f>SUM(C18:C19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="19" t="e">
-        <f>SUM(D18:D19)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="C17" s="14">
         <f>(C14*(100%-C7))/C9</f>
         <v>0.56861273109696142</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="21"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -824,7 +741,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -841,7 +758,7 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -905,7 +822,7 @@
         <f>AVERAGE(C8:E8)</f>
         <v>0.84333333333333338</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -923,7 +840,7 @@
         <v>536000</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -945,7 +862,7 @@
         <f>AVERAGE(C10:E10)</f>
         <v>4.6920722462495099E-4</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
@@ -953,7 +870,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <f>C8*0.8%</f>
@@ -972,12 +889,12 @@
         <v>6.7466666666666673E-3</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <f>C12/3</f>
@@ -1057,9 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A85D1B-17E6-4D1A-A9FF-2C978DD6CE4D}">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1071,7 +986,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1146,7 +1061,7 @@
         <f>AVERAGE(C8:D8)</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1161,7 +1076,7 @@
         <v>788000</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1179,14 +1094,14 @@
         <f>AVERAGE(C10:D10)</f>
         <v>2.3763228046372589E-3</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <f>C8*1%</f>
@@ -1201,12 +1116,12 @@
         <v>1.12E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2">
         <f>C12/3</f>
@@ -1230,7 +1145,7 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/NationaleNederlanden/NN.xlsx
+++ b/NationaleNederlanden/NN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/NationaleNederlanden/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="995" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D5579F-01B9-4881-BD47-FC03D3B73C81}"/>
+  <xr:revisionPtr revIDLastSave="1026" documentId="13_ncr:1_{1145E7EB-B52A-4035-9DB0-6756A4D32375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDFB6A4B-778A-4090-A241-A41D0C49B955}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="2205" windowWidth="23730" windowHeight="18360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketCap" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>TER</t>
   </si>
@@ -142,16 +142,7 @@
     <t>MAR 31, 2021</t>
   </si>
   <si>
-    <t>Vuistregel / 3</t>
-  </si>
-  <si>
     <t>Gemeldde transactiekosten wel laag bij deze turnovers, andere rekenmethode?</t>
-  </si>
-  <si>
-    <t>Meesman vuistregel</t>
-  </si>
-  <si>
-    <t>Meesman vuistregel*</t>
   </si>
   <si>
     <t>* Pak hier wel 1% omdat handelen in Emerging Markets meestal duurder is</t>
@@ -716,36 +707,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50C80A-B9F0-42B2-B14F-324E5B39F7D5}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="76.85546875" customWidth="1"/>
+    <col min="3" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="19" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2018</v>
       </c>
@@ -755,12 +749,15 @@
       <c r="E4" s="1">
         <v>2020</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -773,15 +770,18 @@
       <c r="E5" s="3">
         <v>1.75E-3</v>
       </c>
-      <c r="F5" s="4">
-        <f>AVERAGE(C5:E5)</f>
+      <c r="F5" s="3">
         <v>1.75E-3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" s="4">
+        <f>AVERAGE(C5:F5)</f>
+        <v>1.75E-3</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -794,18 +794,22 @@
       <c r="E6" s="6">
         <v>1836536000</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="6">
+        <v>2637295000</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="H7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -819,14 +823,17 @@
         <v>0.37</v>
       </c>
       <c r="F8" s="13">
-        <f>AVERAGE(C8:E8)</f>
-        <v>0.84333333333333338</v>
-      </c>
-      <c r="H8" s="19" t="s">
+        <v>0.36</v>
+      </c>
+      <c r="G8" s="13">
+        <f>AVERAGE(C8:F8)</f>
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -839,10 +846,13 @@
       <c r="E9" s="6">
         <v>536000</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>589000</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -858,65 +868,44 @@
         <f>E9/E6</f>
         <v>2.9185379431712744E-4</v>
       </c>
-      <c r="F10" s="3">
-        <f>AVERAGE(C10:E10)</f>
-        <v>4.6920722462495099E-4</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="7">
+        <f>F9/F6</f>
+        <v>2.233348942761428E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <f>AVERAGE(C10:F10)</f>
+        <v>4.0773914203774897E-4</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2">
-        <f>C8*0.8%</f>
-        <v>6.4800000000000005E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <f>D8*0.8%</f>
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="E12" s="2">
-        <f>E8*0.8%</f>
-        <v>2.96E-3</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F13" si="0">AVERAGE(C12:E12)</f>
-        <v>6.7466666666666673E-3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3">
+        <f>AVERAGE(E10:F10)</f>
+        <v>2.5759434429663513E-4</v>
+      </c>
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2">
-        <f>C12/3</f>
-        <v>2.16E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <f>D12/3</f>
-        <v>3.6000000000000003E-3</v>
-      </c>
-      <c r="E13" s="2">
-        <f>E12/3</f>
-        <v>9.8666666666666672E-4</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.2488888888888892E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -956,8 +945,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{AC5E9CFC-42C0-4AF3-B5F2-ED7A762C890A}"/>
@@ -972,47 +961,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A85D1B-17E6-4D1A-A9FF-2C978DD6CE4D}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="76.85546875" customWidth="1"/>
+    <col min="3" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="15" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>2019</v>
       </c>
       <c r="D4" s="1">
         <v>2020</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1023,11 +1018,14 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E5" s="4">
-        <f>AVERAGE(C5:D5)</f>
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <f>AVERAGE(C5:E5)</f>
+        <v>3.0000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1037,17 +1035,21 @@
       <c r="D6" s="6">
         <v>577505000</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="6">
+        <v>831737000</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="G7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -1058,14 +1060,17 @@
         <v>0.72</v>
       </c>
       <c r="E8" s="13">
-        <f>AVERAGE(C8:D8)</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G8" s="19" t="s">
+        <v>0.62</v>
+      </c>
+      <c r="F8" s="13">
+        <f>AVERAGE(C8:E8)</f>
+        <v>0.95333333333333348</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1075,10 +1080,13 @@
       <c r="D9">
         <v>788000</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1102000</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1090,62 +1098,47 @@
         <f>D9/D6</f>
         <v>1.364490350732894E-3</v>
       </c>
-      <c r="E10" s="3">
-        <f>AVERAGE(C10:D10)</f>
-        <v>2.3763228046372589E-3</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2">
-        <f>C8*1%</f>
-        <v>1.52E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <f>D8*1%</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="E12" s="4">
-        <f>AVERAGE(C12:D12)</f>
-        <v>1.12E-2</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E10" s="7">
+        <f>E9/E6</f>
+        <v>1.32493805133113E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(C10:E10)</f>
+        <v>2.0258612202018827E-3</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3">
+        <f>AVERAGE(D10:E10)</f>
+        <v>1.3447142010320121E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="H15" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2">
-        <f>C12/3</f>
-        <v>5.0666666666666664E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <f>D12/3</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <f>AVERAGE(C13:D13)</f>
-        <v>3.7333333333333333E-3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="G15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1164,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{B5C8E7D7-83CC-4129-BEA3-FA446681B243}"/>
